--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03992133333333334</v>
+        <v>0.03992133333333333</v>
       </c>
       <c r="N2">
         <v>0.119764</v>
       </c>
       <c r="O2">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678476</v>
       </c>
       <c r="P2">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678477</v>
       </c>
       <c r="Q2">
-        <v>4.266735804279556</v>
+        <v>8.441823697955554</v>
       </c>
       <c r="R2">
-        <v>38.400622238516</v>
+        <v>75.9764132816</v>
       </c>
       <c r="S2">
-        <v>0.002077583018516298</v>
+        <v>0.09862653739285965</v>
       </c>
       <c r="T2">
-        <v>0.002077583018516299</v>
+        <v>0.09862653739285966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.859180333333333</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="N3">
-        <v>8.577541</v>
+        <v>0.17423</v>
       </c>
       <c r="O3">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321523</v>
       </c>
       <c r="P3">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321524</v>
       </c>
       <c r="Q3">
-        <v>305.5851616293365</v>
+        <v>12.28097711244444</v>
       </c>
       <c r="R3">
-        <v>2750.266454664029</v>
+        <v>110.528794012</v>
       </c>
       <c r="S3">
-        <v>0.1487972472715282</v>
+        <v>0.1434796901402586</v>
       </c>
       <c r="T3">
-        <v>0.1487972472715283</v>
+        <v>0.1434796901402587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>231.698769</v>
       </c>
       <c r="I4">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J4">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03992133333333334</v>
+        <v>0.03992133333333333</v>
       </c>
       <c r="N4">
         <v>0.119764</v>
       </c>
       <c r="O4">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678476</v>
       </c>
       <c r="P4">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678477</v>
       </c>
       <c r="Q4">
-        <v>3.083241263390667</v>
+        <v>3.083241263390666</v>
       </c>
       <c r="R4">
         <v>27.749171370516</v>
       </c>
       <c r="S4">
-        <v>0.001501309193877027</v>
+        <v>0.03602176740893699</v>
       </c>
       <c r="T4">
-        <v>0.001501309193877027</v>
+        <v>0.036021767408937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>231.698769</v>
       </c>
       <c r="I5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.859180333333333</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="N5">
-        <v>8.577541</v>
+        <v>0.17423</v>
       </c>
       <c r="O5">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321523</v>
       </c>
       <c r="P5">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321524</v>
       </c>
       <c r="Q5">
-        <v>220.8228545274476</v>
+        <v>4.485430724763333</v>
       </c>
       <c r="R5">
-        <v>1987.405690747029</v>
+        <v>40.36887652287</v>
       </c>
       <c r="S5">
-        <v>0.1075243075060715</v>
+        <v>0.05240366500500227</v>
       </c>
       <c r="T5">
-        <v>0.1075243075060715</v>
+        <v>0.05240366500500228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H6">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I6">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J6">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03992133333333334</v>
+        <v>0.03992133333333333</v>
       </c>
       <c r="N6">
         <v>0.119764</v>
       </c>
       <c r="O6">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678476</v>
       </c>
       <c r="P6">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678477</v>
       </c>
       <c r="Q6">
-        <v>5.456301608156001</v>
+        <v>6.95871573125911</v>
       </c>
       <c r="R6">
-        <v>49.106714473404</v>
+        <v>62.62844158133199</v>
       </c>
       <c r="S6">
-        <v>0.002656813096709221</v>
+        <v>0.08129926208261364</v>
       </c>
       <c r="T6">
-        <v>0.002656813096709222</v>
+        <v>0.08129926208261364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H7">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I7">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J7">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.859180333333333</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="N7">
-        <v>8.577541</v>
+        <v>0.17423</v>
       </c>
       <c r="O7">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321523</v>
       </c>
       <c r="P7">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321524</v>
       </c>
       <c r="Q7">
-        <v>390.782294782439</v>
+        <v>10.12338467199889</v>
       </c>
       <c r="R7">
-        <v>3517.040653041951</v>
+        <v>91.11046204798998</v>
       </c>
       <c r="S7">
-        <v>0.190281914985808</v>
+        <v>0.1182723559053954</v>
       </c>
       <c r="T7">
-        <v>0.1902819149858081</v>
+        <v>0.1182723559053954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H8">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I8">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J8">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03992133333333334</v>
+        <v>0.03992133333333333</v>
       </c>
       <c r="N8">
         <v>0.119764</v>
       </c>
       <c r="O8">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678476</v>
       </c>
       <c r="P8">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678477</v>
       </c>
       <c r="Q8">
-        <v>1.818443254405778</v>
+        <v>1.139145199797778</v>
       </c>
       <c r="R8">
-        <v>16.365989289652</v>
+        <v>10.25230679818</v>
       </c>
       <c r="S8">
-        <v>0.0008854466268334775</v>
+        <v>0.01330872932953587</v>
       </c>
       <c r="T8">
-        <v>0.0008854466268334777</v>
+        <v>0.01330872932953587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H9">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I9">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J9">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.859180333333333</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="N9">
-        <v>8.577541</v>
+        <v>0.17423</v>
       </c>
       <c r="O9">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321523</v>
       </c>
       <c r="P9">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321524</v>
       </c>
       <c r="Q9">
-        <v>130.2375636321348</v>
+        <v>1.657203067372222</v>
       </c>
       <c r="R9">
-        <v>1172.138072689213</v>
+        <v>14.91482760635</v>
       </c>
       <c r="S9">
-        <v>0.0634160076899223</v>
+        <v>0.01936124303701475</v>
       </c>
       <c r="T9">
-        <v>0.06341600768992231</v>
+        <v>0.01936124303701476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H10">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I10">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J10">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03992133333333334</v>
+        <v>0.03992133333333333</v>
       </c>
       <c r="N10">
         <v>0.119764</v>
       </c>
       <c r="O10">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678476</v>
       </c>
       <c r="P10">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678477</v>
       </c>
       <c r="Q10">
-        <v>7.928305367427556</v>
+        <v>9.195041184546666</v>
       </c>
       <c r="R10">
-        <v>71.35474830684801</v>
+        <v>82.75537066091999</v>
       </c>
       <c r="S10">
-        <v>0.003860495083960415</v>
+        <v>0.1074264407388896</v>
       </c>
       <c r="T10">
-        <v>0.003860495083960416</v>
+        <v>0.1074264407388896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H11">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I11">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J11">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.859180333333333</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="N11">
-        <v>8.577541</v>
+        <v>0.17423</v>
       </c>
       <c r="O11">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321523</v>
       </c>
       <c r="P11">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321524</v>
       </c>
       <c r="Q11">
-        <v>567.8280981733235</v>
+        <v>13.37674113743333</v>
       </c>
       <c r="R11">
-        <v>5110.452883559912</v>
+        <v>120.3906702369</v>
       </c>
       <c r="S11">
-        <v>0.276490054298194</v>
+        <v>0.1562815935501213</v>
       </c>
       <c r="T11">
-        <v>0.276490054298194</v>
+        <v>0.1562815935501214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H12">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I12">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J12">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.03992133333333334</v>
+        <v>0.03992133333333333</v>
       </c>
       <c r="N12">
         <v>0.119764</v>
       </c>
       <c r="O12">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678476</v>
       </c>
       <c r="P12">
-        <v>0.01377024262113379</v>
+        <v>0.4073688578678477</v>
       </c>
       <c r="Q12">
-        <v>5.726943563464889</v>
+        <v>6.050296263367555</v>
       </c>
       <c r="R12">
-        <v>51.542492071184</v>
+        <v>54.45266637030799</v>
       </c>
       <c r="S12">
-        <v>0.002788595601237349</v>
+        <v>0.07068612091501188</v>
       </c>
       <c r="T12">
-        <v>0.002788595601237349</v>
+        <v>0.07068612091501189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H13">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I13">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J13">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.859180333333333</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="N13">
-        <v>8.577541</v>
+        <v>0.17423</v>
       </c>
       <c r="O13">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321523</v>
       </c>
       <c r="P13">
-        <v>0.9862297573788662</v>
+        <v>0.5926311421321524</v>
       </c>
       <c r="Q13">
-        <v>410.1657695159328</v>
+        <v>8.801836261034444</v>
       </c>
       <c r="R13">
-        <v>3691.491925643396</v>
+        <v>79.21652634930999</v>
       </c>
       <c r="S13">
-        <v>0.1997202256273422</v>
+        <v>0.1028325944943599</v>
       </c>
       <c r="T13">
-        <v>0.1997202256273422</v>
+        <v>0.1028325944943599</v>
       </c>
     </row>
   </sheetData>
